--- a/src/main/webapp/static/template/student.xlsx
+++ b/src/main/webapp/static/template/student.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -43,8 +43,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,7 +154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -186,10 +186,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,7 +220,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,14 +395,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
@@ -413,7 +409,7 @@
     <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -435,7 +431,7 @@
         <v>18320172397</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -446,7 +442,7 @@
         <v>15112063872</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
